--- a/T3.xlsx
+++ b/T3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Desktop\Project Results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Desktop\singhalpriyank\ProjectF13\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -100,10 +100,10 @@
     <t>Unsure</t>
   </si>
   <si>
-    <t>Age 18-25</t>
+    <t>18-25 yr</t>
   </si>
   <si>
-    <t>Age 26-35</t>
+    <t>26-35 yr</t>
   </si>
 </sst>
 </file>
@@ -229,7 +229,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>People willing to pay for increased privacy vs age group</a:t>
+              <a:t>Users willing to pay for increased privacy based on age group</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1200"/>
           </a:p>
@@ -296,16 +296,74 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Age 18-25</c:v>
+                  <c:v>18-25 yr</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Age 26-35</c:v>
+                  <c:v>26-35 yr</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Others</c:v>
@@ -341,7 +399,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>No</c:v>
+                  <c:v>Unsure</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -356,16 +414,74 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet2!$B$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>Age 18-25</c:v>
+                  <c:v>18-25 yr</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Age 26-35</c:v>
+                  <c:v>26-35 yr</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>Others</c:v>
@@ -376,6 +492,124 @@
           <c:val>
             <c:numRef>
               <c:f>Sheet2!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>18-25 yr</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26-35 yr</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Others</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$5:$D$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -392,66 +626,6 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet2!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Unsure</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet2!$B$2:$D$2</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Age 18-25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Age 26-35</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Others</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet2!$B$5:$D$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -462,16 +636,72 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-669408448"/>
-        <c:axId val="-669420416"/>
+        <c:axId val="2039234880"/>
+        <c:axId val="2039236512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-669408448"/>
+        <c:axId val="2039234880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Age of users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -509,7 +739,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-669420416"/>
+        <c:crossAx val="2039236512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -517,7 +747,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-669420416"/>
+        <c:axId val="2039236512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -537,6 +767,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Number of users</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -568,7 +854,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-669408448"/>
+        <c:crossAx val="2039234880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2257,7 +2543,7 @@
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2289,30 +2575,30 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>35</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/T3.xlsx
+++ b/T3.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="24">
   <si>
     <t>Data</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>26-35 yr</t>
+  </si>
+  <si>
+    <t>36+ yr</t>
   </si>
 </sst>
 </file>
@@ -366,7 +369,7 @@
                   <c:v>26-35 yr</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Others</c:v>
+                  <c:v>36+ yr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -384,7 +387,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -484,7 +487,7 @@
                   <c:v>26-35 yr</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Others</c:v>
+                  <c:v>36+ yr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -502,7 +505,7 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -602,7 +605,7 @@
                   <c:v>26-35 yr</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Others</c:v>
+                  <c:v>36+ yr</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -620,7 +623,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,11 +639,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="2039234880"/>
-        <c:axId val="2039236512"/>
+        <c:axId val="1336327696"/>
+        <c:axId val="1336316272"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2039234880"/>
+        <c:axId val="1336327696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -739,7 +742,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039236512"/>
+        <c:crossAx val="1336316272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -747,7 +750,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2039236512"/>
+        <c:axId val="1336316272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -854,7 +857,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2039234880"/>
+        <c:crossAx val="1336327696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2543,7 +2546,7 @@
   <dimension ref="A2:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2556,7 +2559,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2570,7 +2573,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2584,7 +2587,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2598,7 +2601,7 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
